--- a/biology/Médecine/Distension_gastrique/Distension_gastrique.xlsx
+++ b/biology/Médecine/Distension_gastrique/Distension_gastrique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La distension gastrique est un ballonnement de l'estomac lorsque de l'air y est accumulé. Cela peut être le cas lors d'une réanimation cardiopulmonaire et que l'on souffle de l'air dans la bouche d'une personne qui ne respire pas spontanément. La raison principale en est que trop d’air est délivré pendant la respiration artificielle. 
 Cela peut également se produire lorsque des interventions médicales plus avancées sont effectuées par le personnel d'urgence ou hospitalier et que des fuites d'air passent au-delà de l'ouverture des poumons et dans l'estomac. Cependant, ce problème peut être évité en insérant une sonde gastrique et en aspirant l'air et le contenu de l'estomac. 
